--- a/short_sale_calculator/Dashboards/Dashboardv3.xlsx
+++ b/short_sale_calculator/Dashboards/Dashboardv3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITR-Kit\short_sale_calculator\Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B3B284-AAA0-4E4E-9A24-C1ED9CEA9D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C526A42-5234-49B3-9FBF-DE6A8E33ADBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84E4215D-59A1-47B3-B7C6-EBA92DED9849}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{84E4215D-59A1-47B3-B7C6-EBA92DED9849}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Full Value of consideration</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Total Tax</t>
+  </si>
+  <si>
+    <t>Short Term Profit</t>
+  </si>
+  <si>
+    <t>Long Term Loss</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -209,11 +215,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -267,6 +282,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -277,9 +301,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7979"/>
       <color rgb="FFDAE9F8"/>
       <color rgb="FF83CCEB"/>
-      <color rgb="FFFF7979"/>
     </mruColors>
   </colors>
   <extLst>
@@ -616,7 +640,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.140625" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -738,15 +762,15 @@
         <v>150000</v>
       </c>
       <c r="C8" s="6">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="D8" s="6">
         <f>IF(B8-C8&gt;100000,ROUND(((B8-C8)-100000)*10%,0),0)</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
         <f>D8+D9</f>
-        <v>4000</v>
+        <v>19</v>
       </c>
       <c r="F8" s="14"/>
     </row>
@@ -754,11 +778,15 @@
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="6">
+        <v>555</v>
+      </c>
+      <c r="C9" s="6">
+        <v>400</v>
+      </c>
       <c r="D9" s="6">
         <f>ROUND((B9-C9)*12.5%,0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="14"/>
@@ -769,40 +797,62 @@
       </c>
       <c r="B10" s="2">
         <f>B8+B9</f>
-        <v>150000</v>
+        <v>150555</v>
       </c>
       <c r="C10" s="2">
         <f>C8+C9</f>
-        <v>10000</v>
+        <v>300400</v>
       </c>
       <c r="D10" s="2">
         <f>D8+D9</f>
-        <v>4000</v>
+        <v>19</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="14"/>
     </row>
+    <row r="11" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14">
+        <f>SUM(E3,E8)</f>
+        <v>519</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="20"/>
+    </row>
     <row r="12" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14">
-        <f>E3+E8</f>
-        <v>4500</v>
-      </c>
-      <c r="E12" s="14"/>
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <f>B5-C5</f>
+        <v>5000</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18">
+        <f>B10-C10</f>
+        <v>-149845</v>
+      </c>
+      <c r="F12" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E3:F5"/>
     <mergeCell ref="E8:F10"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
